--- a/TH1_Nhom6_Unit_Testcase.xlsx
+++ b/TH1_Nhom6_Unit_Testcase.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giao trinh\Chat luong va Kiem thu phan mem\Thuc hanh\Bai tap thuc hanh\Thuc hanh D14\TH1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAI LIEU LAP TRINH\TDMU\Nam 4\Chat luong &amp; kiem thu phan mem\Thuc hanh\TH1\KiemThuPhanMem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E63DBAB-5529-4799-A12C-51EA16051DC1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="7440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ham 1" sheetId="1" r:id="rId1"/>
     <sheet name="PTB2" sheetId="2" r:id="rId2"/>
+    <sheet name="HPT3An" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Hàm</t>
   </si>
@@ -119,12 +121,67 @@
   </si>
   <si>
     <t>TC_PTB2_02</t>
+  </si>
+  <si>
+    <t>TC_HPT3A_01</t>
+  </si>
+  <si>
+    <t>TC_HPT3A_02</t>
+  </si>
+  <si>
+    <t>TC_HPT3A_03</t>
+  </si>
+  <si>
+    <t>Nhập vào a1=0, b1=0, c1=0, d1=0, a2=0, b2=0, c2=0, d2=0, a3=0, b3=0, c3=0, d3=0</t>
+  </si>
+  <si>
+    <t>Nhập vào a1=0, b1=0, c1=0, d1=1, a2=0, b2=0, c2=0, d2=0, a3=0, b3=0, c3=0, d3=0</t>
+  </si>
+  <si>
+    <t>Nhập vào a1=1, b1=1, c1=1, d1=6, a2=1, b2=-1, c2=1, d2=2, a3=1, b3=1, c3=-1, d3=0</t>
+  </si>
+  <si>
+    <t>Thông báo "Hệ phương trình có vô số nghiệm"</t>
+  </si>
+  <si>
+    <t>Hệ phương trình có vô số nghiệm</t>
+  </si>
+  <si>
+    <t>Thông báo "Hệ phương trình vô nghiệm"</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ phương trình vô số nghiệm</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ phương trình vô nghiệm</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ phương trình có một nghiệm</t>
+  </si>
+  <si>
+    <t>Hệ phương trình vô nghiệm</t>
+  </si>
+  <si>
+    <t>Message:   Expected string length 25 but was 28. Strings differ at index 19.
+  Expected: "Hệ phương trình vô nghiệm"
+  But was:  "Hệ phương trình vô số nghiệm"
+  ------------------------------^</t>
+  </si>
+  <si>
+    <t>Message:   Expected string length 27 but was 25. Strings differ at index 16.
+  Expected: "Hệ phương trình có 1 nghiệm"
+  But was:  "Hệ phương trình vô nghiệm"
+  ---------------------------^</t>
+  </si>
+  <si>
+    <t>Thông báo "Hệ phương trình có 1 nghiệm"
+Kết quả X=1, Y=2, Z=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -205,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -238,6 +295,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,6 +401,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -367,6 +453,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,26 +645,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -574,7 +677,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -585,7 +688,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -608,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -631,7 +734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -642,7 +745,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -651,7 +754,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -660,7 +763,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -669,7 +772,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -678,7 +781,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -687,7 +790,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -704,7 +807,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Passed,Failed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -715,26 +818,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -747,7 +850,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -758,7 +861,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -781,7 +884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -804,7 +907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -827,7 +930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -848,7 +951,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -857,7 +960,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -866,7 +969,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -875,7 +978,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -884,7 +987,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -903,4 +1006,207 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349AF9C3-6409-42CC-9D3F-BE19C3871246}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="16" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" s="16" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="16" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TH1_Nhom6_Unit_Testcase.xlsx
+++ b/TH1_Nhom6_Unit_Testcase.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAI LIEU LAP TRINH\TDMU\Nam 4\Chat luong &amp; kiem thu phan mem\Thuc hanh\TH1\KiemThuPhanMem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhth\OneDrive\Desktop\GitBTH1\KiemThuPhanMem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E63DBAB-5529-4799-A12C-51EA16051DC1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2E63DBAB-5529-4799-A12C-51EA16051DC1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{B86AF9CE-F42A-4CE6-AFD0-7A63548A648F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="7440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ham 1" sheetId="1" r:id="rId1"/>
     <sheet name="PTB2" sheetId="2" r:id="rId2"/>
     <sheet name="HPT3An" sheetId="3" r:id="rId3"/>
+    <sheet name="TH1_NHOM6_UNIT_GPTB2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t>Hàm</t>
   </si>
@@ -176,13 +177,76 @@
   <si>
     <t>Thông báo "Hệ phương trình có 1 nghiệm"
 Kết quả X=1, Y=2, Z=3</t>
+  </si>
+  <si>
+    <t>Nhập vào a=0,b=0,c=2</t>
+  </si>
+  <si>
+    <t>TC_PTB2_03</t>
+  </si>
+  <si>
+    <t>Kiểm tra phương trình vô số nghiệm</t>
+  </si>
+  <si>
+    <t>Nhập vào a=0,b=0,c=0</t>
+  </si>
+  <si>
+    <t>Thông báo "Phương trình vô số nghiệm"</t>
+  </si>
+  <si>
+    <t>Phương trình vô số nghiệm</t>
+  </si>
+  <si>
+    <t>TC_PTB2_04</t>
+  </si>
+  <si>
+    <t>Kiểm tra phương trình có 1 nghiệm</t>
+  </si>
+  <si>
+    <t>Nhập vào a=0,b=4,c=2</t>
+  </si>
+  <si>
+    <t>Thông báo "Phương trình có 1 nghiệm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông báo "Phương trình có 1 nghiệm" .Nghiệm =(-1/5) </t>
+  </si>
+  <si>
+    <t>TC_PTB2_05</t>
+  </si>
+  <si>
+    <t>Nhập vào a=2,b=3,c=2</t>
+  </si>
+  <si>
+    <t>TC_PTB2_06</t>
+  </si>
+  <si>
+    <t>Nhập vào a=2,b=4,c=2</t>
+  </si>
+  <si>
+    <t>Thông báo "Phương trình có 1 nghiệm" . Nghiệm = (-1)</t>
+  </si>
+  <si>
+    <t>TC_PTB2_07</t>
+  </si>
+  <si>
+    <t>Kiểm tra phương trình có 2 nghiệm</t>
+  </si>
+  <si>
+    <t>Nhập vào a=2,b=5,c=2</t>
+  </si>
+  <si>
+    <t>Thông báo "Phương trình có 2 nghiệm"</t>
+  </si>
+  <si>
+    <t>Thông báo "Phương trình có 2 nghiệm".  X1 = 2; X2=-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -220,6 +284,11 @@
       <family val="3"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,11 +327,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -290,23 +372,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,43 +743,43 @@
       <selection activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -711,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -734,7 +825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -745,7 +836,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -754,7 +845,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -763,7 +854,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -772,7 +863,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -781,7 +872,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -790,7 +881,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -825,43 +916,43 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -884,7 +975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -907,7 +998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -930,7 +1021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -951,7 +1042,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -960,7 +1051,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -969,7 +1060,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -978,7 +1069,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -987,7 +1078,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1012,47 +1103,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349AF9C3-6409-42CC-9D3F-BE19C3871246}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="70" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1075,34 +1166,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1114,92 +1205,341 @@
       <c r="E5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CBEDA1-EBCC-4DF6-85A3-567E2D0BD5A0}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TH1_Nhom6_Unit_Testcase.xlsx
+++ b/TH1_Nhom6_Unit_Testcase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHOI\Desktop\New folder\KiemThuPhanMem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAI LIEU LAP TRINH\TDMU\Nam 4\Chat luong &amp; kiem thu phan mem\Thuc hanh\TH1\KiemThuPhanMem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BBAC66-0777-48F2-B12C-7C3F72A4C8AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="7440" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="7440" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH1_NHOM6_UNIT_GPTB2" sheetId="8" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
   <si>
     <t>Hàm</t>
   </si>
@@ -375,11 +376,21 @@
   <si>
     <t>Giải Hệ Phương Trình Bậc Nhất Hai Ẩn</t>
   </si>
+  <si>
+    <t>TC_HPT3A_04</t>
+  </si>
+  <si>
+    <t>Nhập vào a1=3, b1=3, c1=3, d1=9, a2=3, b2=-3, c2=3, d2=3, a3=3, b3=3, c3=-3, d3=3</t>
+  </si>
+  <si>
+    <t>Thông báo "Hệ phương trình có 1 nghiệm"
+Kết quả X=1, Y=1, Z=1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -521,12 +532,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,12 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,6 +571,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,6 +677,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -701,6 +729,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -876,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -884,43 +929,43 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -943,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -966,7 +1011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -987,7 +1032,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
@@ -1008,7 +1053,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -1029,7 +1074,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -1050,7 +1095,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
@@ -1071,7 +1116,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
@@ -1103,7 +1148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1111,43 +1156,43 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.5703125" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="20.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.5546875" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1170,225 +1215,225 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:7" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:7" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:7" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="67.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E26" s="28"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1402,51 +1447,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="70" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1490,7 +1535,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1536,16 +1581,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1554,7 +1613,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1563,7 +1622,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1583,51 +1642,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="20.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1650,196 +1709,196 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>-1</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>-1</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TH1_Nhom6_Unit_Testcase.xlsx
+++ b/TH1_Nhom6_Unit_Testcase.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAI LIEU LAP TRINH\TDMU\Nam 4\Chat luong &amp; kiem thu phan mem\Thuc hanh\TH1\KiemThuPhanMem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BBAC66-0777-48F2-B12C-7C3F72A4C8AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06820F5F-4F62-4BC7-A887-83C197DCB927}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="7440" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="7440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TH1_NHOM6_UNIT_GPTB2" sheetId="8" r:id="rId1"/>
-    <sheet name="TH1_NHOM6_UNIT_HPTBN2A" sheetId="7" r:id="rId2"/>
-    <sheet name="HPT3An" sheetId="6" r:id="rId3"/>
-    <sheet name="TH1_NHOM6_UNIT_HMGTHS" sheetId="5" r:id="rId4"/>
+    <sheet name="GPTB2" sheetId="8" r:id="rId1"/>
+    <sheet name="HPTBN2A" sheetId="7" r:id="rId2"/>
+    <sheet name="HPTBN3A" sheetId="6" r:id="rId3"/>
+    <sheet name="HMGTHS" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="124">
   <si>
     <t>Hàm</t>
   </si>
@@ -65,17 +65,9 @@
     <t xml:space="preserve">Thông báo "Hệ số a phải khác 0" </t>
   </si>
   <si>
-    <t>Phương trình có 1 nghiệm</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>Expected string length 24 but was 19. Strings differ at index 0.
-  Expected: "Phương trình có 1 nghiệm"
-  But was:  "Hệ số a phải khác 0"</t>
-  </si>
-  <si>
     <t>Kiểm tra phương trình vô nghiệm</t>
   </si>
   <si>
@@ -125,9 +117,6 @@
   </si>
   <si>
     <t>Kiểm tra hệ phương trình vô nghiệm</t>
-  </si>
-  <si>
-    <t>Kiểm tra hệ phương trình có một nghiệm</t>
   </si>
   <si>
     <t>Hệ phương trình vô nghiệm</t>
@@ -149,9 +138,6 @@
 Kết quả X=1, Y=2, Z=3</t>
   </si>
   <si>
-    <t>Nhập vào a=0,b=0,c=2</t>
-  </si>
-  <si>
     <t>TC_PTB2_03</t>
   </si>
   <si>
@@ -179,15 +165,9 @@
     <t>Thông báo "Phương trình có 1 nghiệm"</t>
   </si>
   <si>
-    <t xml:space="preserve">Thông báo "Phương trình có 1 nghiệm" .Nghiệm =(-1/5) </t>
-  </si>
-  <si>
     <t>TC_PTB2_05</t>
   </si>
   <si>
-    <t>Nhập vào a=2,b=3,c=2</t>
-  </si>
-  <si>
     <t>TC_PTB2_06</t>
   </si>
   <si>
@@ -207,9 +187,6 @@
   </si>
   <si>
     <t>Thông báo "Phương trình có 2 nghiệm"</t>
-  </si>
-  <si>
-    <t>Thông báo "Phương trình có 2 nghiệm".  X1 = 2; X2=-2</t>
   </si>
   <si>
     <t>Kết quả = 0</t>
@@ -385,6 +362,55 @@
   <si>
     <t>Thông báo "Hệ phương trình có 1 nghiệm"
 Kết quả X=1, Y=1, Z=1</t>
+  </si>
+  <si>
+    <t>Nhập vào a=2,b=3,c=3</t>
+  </si>
+  <si>
+    <t>Nhập vào a=0,b=0,c=1</t>
+  </si>
+  <si>
+    <t>Phương trình có 1 nghiệm. Nghiệm =-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông báo "Phương trình có 1 nghiệm" .Nghiệm =(-0.5) </t>
+  </si>
+  <si>
+    <t>Thông báo "Phương trình có 2 nghiệm".  X1 = 2; X2=-0.5</t>
+  </si>
+  <si>
+    <t>TC_HPT3A_05</t>
+  </si>
+  <si>
+    <t>TC_HPT3A_06</t>
+  </si>
+  <si>
+    <t>TC_HPT3A_07</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ phương trình có nghiệm</t>
+  </si>
+  <si>
+    <t>TC_HPT3A_08</t>
+  </si>
+  <si>
+    <t>Nhập vào a1=100, b1=100, c1=100, d1=0, a2=0, b2=0, c2=0, d2=0, a3=0, b3=0, c3=0, d3=0</t>
+  </si>
+  <si>
+    <t>Nhập vào a1=-100, b1=-100, c1=-100, d1=0, a2=0, b2=0, c2=0, d2=0, a3=0, b3=0, c3=0, d3=0</t>
+  </si>
+  <si>
+    <t>Nhập vào a1=0, b1=0, c1=0, d1=-1, a2=0, b2=0, c2=0, d2=0, a3=0, b3=0, c3=0, d3=0</t>
+  </si>
+  <si>
+    <t>Thông báo "Hệ phương trình có 1 nghiệm"
+Kết quả X=-1, Y=-1, Z=-1</t>
+  </si>
+  <si>
+    <t>Nhập vào a1=-2, b1=-3, c1=5, d1=0, a2=4, b2=3, c2=2, d2=-9, a3=1, b3=2, c3=-3, d3=0</t>
+  </si>
+  <si>
+    <t>Giải hệ phương trình Bậc nhất Ba ẩn</t>
   </si>
 </sst>
 </file>
@@ -926,7 +952,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -982,15 +1008,15 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
@@ -1002,138 +1028,136 @@
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -1174,7 +1198,7 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="33" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -1209,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>6</v>
@@ -1217,110 +1241,110 @@
     </row>
     <row r="4" spans="1:7" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="67.2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="18"/>
     </row>
@@ -1449,10 +1473,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -1460,9 +1484,9 @@
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="70" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -1473,7 +1497,7 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="31" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
@@ -1508,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>6</v>
@@ -1516,120 +1540,180 @@
     </row>
     <row r="4" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1647,7 +1731,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1752,7 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="33" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -1703,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>6</v>
@@ -1711,192 +1795,192 @@
     </row>
     <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D8" s="18">
         <v>-1</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="18">
-        <v>-1</v>
+        <v>60</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="E9" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="17"/>
     </row>
